--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -1038,20 +1038,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="16.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="13.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="19.0909090909091" customWidth="1"/>
-    <col min="5" max="5" width="17.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="26.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="14.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="17.0909090909091" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2294,6 +2292,5006 @@
         <v>25009800</v>
       </c>
     </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>101.709999</v>
+      </c>
+      <c r="B63">
+        <v>104.190002</v>
+      </c>
+      <c r="C63">
+        <v>101.440002</v>
+      </c>
+      <c r="D63">
+        <v>104</v>
+      </c>
+      <c r="E63">
+        <v>103.88179</v>
+      </c>
+      <c r="F63">
+        <v>28108000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>102.669998</v>
+      </c>
+      <c r="B64">
+        <v>104.949997</v>
+      </c>
+      <c r="C64">
+        <v>102.379997</v>
+      </c>
+      <c r="D64">
+        <v>104.910004</v>
+      </c>
+      <c r="E64">
+        <v>104.790756</v>
+      </c>
+      <c r="F64">
+        <v>20719900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>104.839996</v>
+      </c>
+      <c r="B65">
+        <v>106.099998</v>
+      </c>
+      <c r="C65">
+        <v>104.599998</v>
+      </c>
+      <c r="D65">
+        <v>105.120003</v>
+      </c>
+      <c r="E65">
+        <v>105.000519</v>
+      </c>
+      <c r="F65">
+        <v>20377200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>106.120003</v>
+      </c>
+      <c r="B66">
+        <v>106.540001</v>
+      </c>
+      <c r="C66">
+        <v>104.101997</v>
+      </c>
+      <c r="D66">
+        <v>104.949997</v>
+      </c>
+      <c r="E66">
+        <v>104.830704</v>
+      </c>
+      <c r="F66">
+        <v>21864200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>105.769997</v>
+      </c>
+      <c r="B67">
+        <v>109.629997</v>
+      </c>
+      <c r="C67">
+        <v>104.815002</v>
+      </c>
+      <c r="D67">
+        <v>108.900002</v>
+      </c>
+      <c r="E67">
+        <v>108.776222</v>
+      </c>
+      <c r="F67">
+        <v>34684200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>107.389999</v>
+      </c>
+      <c r="B68">
+        <v>107.970001</v>
+      </c>
+      <c r="C68">
+        <v>105.599998</v>
+      </c>
+      <c r="D68">
+        <v>106.949997</v>
+      </c>
+      <c r="E68">
+        <v>106.82843</v>
+      </c>
+      <c r="F68">
+        <v>19741500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>106.919998</v>
+      </c>
+      <c r="B69">
+        <v>107.220001</v>
+      </c>
+      <c r="C69">
+        <v>105.279999</v>
+      </c>
+      <c r="D69">
+        <v>106.120003</v>
+      </c>
+      <c r="E69">
+        <v>105.999382</v>
+      </c>
+      <c r="F69">
+        <v>18721300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>107.389999</v>
+      </c>
+      <c r="B70">
+        <v>107.586998</v>
+      </c>
+      <c r="C70">
+        <v>104.970001</v>
+      </c>
+      <c r="D70">
+        <v>105.220001</v>
+      </c>
+      <c r="E70">
+        <v>105.100403</v>
+      </c>
+      <c r="F70">
+        <v>22761600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>106.470001</v>
+      </c>
+      <c r="B71">
+        <v>108.264999</v>
+      </c>
+      <c r="C71">
+        <v>106.440002</v>
+      </c>
+      <c r="D71">
+        <v>108.190002</v>
+      </c>
+      <c r="E71">
+        <v>108.067024</v>
+      </c>
+      <c r="F71">
+        <v>21650700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>107.690002</v>
+      </c>
+      <c r="B72">
+        <v>109.580002</v>
+      </c>
+      <c r="C72">
+        <v>107.589996</v>
+      </c>
+      <c r="D72">
+        <v>109.459999</v>
+      </c>
+      <c r="E72">
+        <v>109.335579</v>
+      </c>
+      <c r="F72">
+        <v>20758700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>105.43</v>
+      </c>
+      <c r="B73">
+        <v>106.709999</v>
+      </c>
+      <c r="C73">
+        <v>105.32</v>
+      </c>
+      <c r="D73">
+        <v>106.419998</v>
+      </c>
+      <c r="E73">
+        <v>106.299034</v>
+      </c>
+      <c r="F73">
+        <v>29043400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>107</v>
+      </c>
+      <c r="B74">
+        <v>107.050003</v>
+      </c>
+      <c r="C74">
+        <v>104.779999</v>
+      </c>
+      <c r="D74">
+        <v>105.120003</v>
+      </c>
+      <c r="E74">
+        <v>105.000519</v>
+      </c>
+      <c r="F74">
+        <v>17641400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>104.214996</v>
+      </c>
+      <c r="B75">
+        <v>105.724998</v>
+      </c>
+      <c r="C75">
+        <v>103.800003</v>
+      </c>
+      <c r="D75">
+        <v>105.019997</v>
+      </c>
+      <c r="E75">
+        <v>104.900627</v>
+      </c>
+      <c r="F75">
+        <v>16732000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>104.650002</v>
+      </c>
+      <c r="B76">
+        <v>106.888</v>
+      </c>
+      <c r="C76">
+        <v>104.639999</v>
+      </c>
+      <c r="D76">
+        <v>105.900002</v>
+      </c>
+      <c r="E76">
+        <v>105.779633</v>
+      </c>
+      <c r="F76">
+        <v>22515300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>106.089996</v>
+      </c>
+      <c r="B77">
+        <v>106.639999</v>
+      </c>
+      <c r="C77">
+        <v>105.485001</v>
+      </c>
+      <c r="D77">
+        <v>105.910004</v>
+      </c>
+      <c r="E77">
+        <v>105.789619</v>
+      </c>
+      <c r="F77">
+        <v>22379000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>106.050003</v>
+      </c>
+      <c r="B78">
+        <v>107.32</v>
+      </c>
+      <c r="C78">
+        <v>105.360001</v>
+      </c>
+      <c r="D78">
+        <v>106.779999</v>
+      </c>
+      <c r="E78">
+        <v>106.658623</v>
+      </c>
+      <c r="F78">
+        <v>21410900</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>106.610001</v>
+      </c>
+      <c r="B79">
+        <v>107.440002</v>
+      </c>
+      <c r="C79">
+        <v>104.559998</v>
+      </c>
+      <c r="D79">
+        <v>104.610001</v>
+      </c>
+      <c r="E79">
+        <v>104.491096</v>
+      </c>
+      <c r="F79">
+        <v>31408100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>105.559998</v>
+      </c>
+      <c r="B80">
+        <v>107.019997</v>
+      </c>
+      <c r="C80">
+        <v>103.269997</v>
+      </c>
+      <c r="D80">
+        <v>104.449997</v>
+      </c>
+      <c r="E80">
+        <v>104.331276</v>
+      </c>
+      <c r="F80">
+        <v>37068200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>105.230003</v>
+      </c>
+      <c r="B81">
+        <v>109.150002</v>
+      </c>
+      <c r="C81">
+        <v>104.419998</v>
+      </c>
+      <c r="D81">
+        <v>108.370003</v>
+      </c>
+      <c r="E81">
+        <v>108.246826</v>
+      </c>
+      <c r="F81">
+        <v>38235200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>107.800003</v>
+      </c>
+      <c r="B82">
+        <v>108.290001</v>
+      </c>
+      <c r="C82">
+        <v>106.040001</v>
+      </c>
+      <c r="D82">
+        <v>108.220001</v>
+      </c>
+      <c r="E82">
+        <v>108.096992</v>
+      </c>
+      <c r="F82">
+        <v>23957900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>107.720001</v>
+      </c>
+      <c r="B83">
+        <v>108.68</v>
+      </c>
+      <c r="C83">
+        <v>107.5</v>
+      </c>
+      <c r="D83">
+        <v>107.709999</v>
+      </c>
+      <c r="E83">
+        <v>107.58757</v>
+      </c>
+      <c r="F83">
+        <v>20926300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>107.660004</v>
+      </c>
+      <c r="B84">
+        <v>107.730003</v>
+      </c>
+      <c r="C84">
+        <v>104.5</v>
+      </c>
+      <c r="D84">
+        <v>105.980003</v>
+      </c>
+      <c r="E84">
+        <v>105.859543</v>
+      </c>
+      <c r="F84">
+        <v>20343100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>106.220001</v>
+      </c>
+      <c r="B85">
+        <v>108.129997</v>
+      </c>
+      <c r="C85">
+        <v>105.620003</v>
+      </c>
+      <c r="D85">
+        <v>106.120003</v>
+      </c>
+      <c r="E85">
+        <v>105.999382</v>
+      </c>
+      <c r="F85">
+        <v>17116300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>106.160004</v>
+      </c>
+      <c r="B86">
+        <v>106.300003</v>
+      </c>
+      <c r="C86">
+        <v>104.699997</v>
+      </c>
+      <c r="D86">
+        <v>105.209999</v>
+      </c>
+      <c r="E86">
+        <v>105.090408</v>
+      </c>
+      <c r="F86">
+        <v>19780600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>105.32</v>
+      </c>
+      <c r="B87">
+        <v>106.440002</v>
+      </c>
+      <c r="C87">
+        <v>104.738998</v>
+      </c>
+      <c r="D87">
+        <v>106.214996</v>
+      </c>
+      <c r="E87">
+        <v>106.094269</v>
+      </c>
+      <c r="F87">
+        <v>20705300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>105.794998</v>
+      </c>
+      <c r="B88">
+        <v>108.419998</v>
+      </c>
+      <c r="C88">
+        <v>105.790001</v>
+      </c>
+      <c r="D88">
+        <v>108.239998</v>
+      </c>
+      <c r="E88">
+        <v>108.116966</v>
+      </c>
+      <c r="F88">
+        <v>17266000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>108.779999</v>
+      </c>
+      <c r="B89">
+        <v>110.595001</v>
+      </c>
+      <c r="C89">
+        <v>107.724998</v>
+      </c>
+      <c r="D89">
+        <v>107.940002</v>
+      </c>
+      <c r="E89">
+        <v>107.817314</v>
+      </c>
+      <c r="F89">
+        <v>24782400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>108.550003</v>
+      </c>
+      <c r="B90">
+        <v>113.510002</v>
+      </c>
+      <c r="C90">
+        <v>108.480003</v>
+      </c>
+      <c r="D90">
+        <v>112.279999</v>
+      </c>
+      <c r="E90">
+        <v>112.152374</v>
+      </c>
+      <c r="F90">
+        <v>47533500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>115.860001</v>
+      </c>
+      <c r="B91">
+        <v>118.440002</v>
+      </c>
+      <c r="C91">
+        <v>114.93</v>
+      </c>
+      <c r="D91">
+        <v>116.900002</v>
+      </c>
+      <c r="E91">
+        <v>116.767128</v>
+      </c>
+      <c r="F91">
+        <v>57115100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>117</v>
+      </c>
+      <c r="B92">
+        <v>118.260002</v>
+      </c>
+      <c r="C92">
+        <v>116.550003</v>
+      </c>
+      <c r="D92">
+        <v>117.919998</v>
+      </c>
+      <c r="E92">
+        <v>117.785965</v>
+      </c>
+      <c r="F92">
+        <v>31272500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>116.489998</v>
+      </c>
+      <c r="B93">
+        <v>118.794998</v>
+      </c>
+      <c r="C93">
+        <v>116.480003</v>
+      </c>
+      <c r="D93">
+        <v>116.959999</v>
+      </c>
+      <c r="E93">
+        <v>116.827057</v>
+      </c>
+      <c r="F93">
+        <v>22107900</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>116.830002</v>
+      </c>
+      <c r="B94">
+        <v>121.199997</v>
+      </c>
+      <c r="C94">
+        <v>116.830002</v>
+      </c>
+      <c r="D94">
+        <v>120.089996</v>
+      </c>
+      <c r="E94">
+        <v>119.953491</v>
+      </c>
+      <c r="F94">
+        <v>32370100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>120.18</v>
+      </c>
+      <c r="B95">
+        <v>122.279999</v>
+      </c>
+      <c r="C95">
+        <v>119.459999</v>
+      </c>
+      <c r="D95">
+        <v>121.480003</v>
+      </c>
+      <c r="E95">
+        <v>121.341919</v>
+      </c>
+      <c r="F95">
+        <v>26659600</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>121.559998</v>
+      </c>
+      <c r="B96">
+        <v>123.900002</v>
+      </c>
+      <c r="C96">
+        <v>121.489998</v>
+      </c>
+      <c r="D96">
+        <v>123.519997</v>
+      </c>
+      <c r="E96">
+        <v>123.379593</v>
+      </c>
+      <c r="F96">
+        <v>27014500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>124.199997</v>
+      </c>
+      <c r="B97">
+        <v>126.478996</v>
+      </c>
+      <c r="C97">
+        <v>122.720001</v>
+      </c>
+      <c r="D97">
+        <v>123.25</v>
+      </c>
+      <c r="E97">
+        <v>123.109909</v>
+      </c>
+      <c r="F97">
+        <v>30251300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>123.510002</v>
+      </c>
+      <c r="B98">
+        <v>127.050003</v>
+      </c>
+      <c r="C98">
+        <v>123.449997</v>
+      </c>
+      <c r="D98">
+        <v>125.870003</v>
+      </c>
+      <c r="E98">
+        <v>125.726929</v>
+      </c>
+      <c r="F98">
+        <v>29760200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>124.93</v>
+      </c>
+      <c r="B99">
+        <v>125.419998</v>
+      </c>
+      <c r="C99">
+        <v>123.050003</v>
+      </c>
+      <c r="D99">
+        <v>123.290001</v>
+      </c>
+      <c r="E99">
+        <v>123.149864</v>
+      </c>
+      <c r="F99">
+        <v>24477900</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>121.879997</v>
+      </c>
+      <c r="B100">
+        <v>122.75</v>
+      </c>
+      <c r="C100">
+        <v>120.75</v>
+      </c>
+      <c r="D100">
+        <v>121.639999</v>
+      </c>
+      <c r="E100">
+        <v>121.50174</v>
+      </c>
+      <c r="F100">
+        <v>23087900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>125.209999</v>
+      </c>
+      <c r="B101">
+        <v>125.980003</v>
+      </c>
+      <c r="C101">
+        <v>122.900002</v>
+      </c>
+      <c r="D101">
+        <v>124.349998</v>
+      </c>
+      <c r="E101">
+        <v>124.208656</v>
+      </c>
+      <c r="F101">
+        <v>33812700</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>124.065002</v>
+      </c>
+      <c r="B102">
+        <v>126</v>
+      </c>
+      <c r="C102">
+        <v>123.290001</v>
+      </c>
+      <c r="D102">
+        <v>125.43</v>
+      </c>
+      <c r="E102">
+        <v>125.28743</v>
+      </c>
+      <c r="F102">
+        <v>25154700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>126.290001</v>
+      </c>
+      <c r="B103">
+        <v>126.379997</v>
+      </c>
+      <c r="C103">
+        <v>122.889999</v>
+      </c>
+      <c r="D103">
+        <v>124.639999</v>
+      </c>
+      <c r="E103">
+        <v>124.498329</v>
+      </c>
+      <c r="F103">
+        <v>27230700</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>123.699997</v>
+      </c>
+      <c r="B104">
+        <v>124.900002</v>
+      </c>
+      <c r="C104">
+        <v>123.099998</v>
+      </c>
+      <c r="D104">
+        <v>123.370003</v>
+      </c>
+      <c r="E104">
+        <v>123.229774</v>
+      </c>
+      <c r="F104">
+        <v>41548800</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>123.5</v>
+      </c>
+      <c r="B105">
+        <v>125.040001</v>
+      </c>
+      <c r="C105">
+        <v>123.300003</v>
+      </c>
+      <c r="D105">
+        <v>124.370003</v>
+      </c>
+      <c r="E105">
+        <v>124.228638</v>
+      </c>
+      <c r="F105">
+        <v>25017700</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>124.489998</v>
+      </c>
+      <c r="B106">
+        <v>126.745003</v>
+      </c>
+      <c r="C106">
+        <v>124.349998</v>
+      </c>
+      <c r="D106">
+        <v>125.230003</v>
+      </c>
+      <c r="E106">
+        <v>125.087662</v>
+      </c>
+      <c r="F106">
+        <v>19362400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>124.610001</v>
+      </c>
+      <c r="B107">
+        <v>127.989998</v>
+      </c>
+      <c r="C107">
+        <v>124.379997</v>
+      </c>
+      <c r="D107">
+        <v>126.629997</v>
+      </c>
+      <c r="E107">
+        <v>126.486061</v>
+      </c>
+      <c r="F107">
+        <v>22672500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>126.599998</v>
+      </c>
+      <c r="B108">
+        <v>128.880005</v>
+      </c>
+      <c r="C108">
+        <v>125.970001</v>
+      </c>
+      <c r="D108">
+        <v>127.910004</v>
+      </c>
+      <c r="E108">
+        <v>127.76461</v>
+      </c>
+      <c r="F108">
+        <v>19450100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>127.574997</v>
+      </c>
+      <c r="B109">
+        <v>129.550003</v>
+      </c>
+      <c r="C109">
+        <v>122.629997</v>
+      </c>
+      <c r="D109">
+        <v>122.940002</v>
+      </c>
+      <c r="E109">
+        <v>122.800262</v>
+      </c>
+      <c r="F109">
+        <v>34179300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>122.584999</v>
+      </c>
+      <c r="B110">
+        <v>123.730003</v>
+      </c>
+      <c r="C110">
+        <v>122.010002</v>
+      </c>
+      <c r="D110">
+        <v>122.669998</v>
+      </c>
+      <c r="E110">
+        <v>122.530563</v>
+      </c>
+      <c r="F110">
+        <v>24815000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>122.559998</v>
+      </c>
+      <c r="B111">
+        <v>124.285004</v>
+      </c>
+      <c r="C111">
+        <v>122.419998</v>
+      </c>
+      <c r="D111">
+        <v>122.870003</v>
+      </c>
+      <c r="E111">
+        <v>122.730339</v>
+      </c>
+      <c r="F111">
+        <v>20304500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>123.394997</v>
+      </c>
+      <c r="B112">
+        <v>124.75</v>
+      </c>
+      <c r="C112">
+        <v>122.349998</v>
+      </c>
+      <c r="D112">
+        <v>124.349998</v>
+      </c>
+      <c r="E112">
+        <v>124.208656</v>
+      </c>
+      <c r="F112">
+        <v>22255700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>125.650002</v>
+      </c>
+      <c r="B113">
+        <v>125.860001</v>
+      </c>
+      <c r="C113">
+        <v>123.845001</v>
+      </c>
+      <c r="D113">
+        <v>124.43</v>
+      </c>
+      <c r="E113">
+        <v>124.288567</v>
+      </c>
+      <c r="F113">
+        <v>19287700</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>123.800003</v>
+      </c>
+      <c r="B114">
+        <v>124.790001</v>
+      </c>
+      <c r="C114">
+        <v>122.160004</v>
+      </c>
+      <c r="D114">
+        <v>124.379997</v>
+      </c>
+      <c r="E114">
+        <v>124.238617</v>
+      </c>
+      <c r="F114">
+        <v>24659600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>123.879997</v>
+      </c>
+      <c r="B115">
+        <v>126.160004</v>
+      </c>
+      <c r="C115">
+        <v>123.139999</v>
+      </c>
+      <c r="D115">
+        <v>125.790001</v>
+      </c>
+      <c r="E115">
+        <v>125.647018</v>
+      </c>
+      <c r="F115">
+        <v>24517100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>126.699997</v>
+      </c>
+      <c r="B116">
+        <v>126.699997</v>
+      </c>
+      <c r="C116">
+        <v>123.790001</v>
+      </c>
+      <c r="D116">
+        <v>124.059998</v>
+      </c>
+      <c r="E116">
+        <v>123.918983</v>
+      </c>
+      <c r="F116">
+        <v>56686800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>123.535004</v>
+      </c>
+      <c r="B117">
+        <v>125.175003</v>
+      </c>
+      <c r="C117">
+        <v>122.830002</v>
+      </c>
+      <c r="D117">
+        <v>123.849998</v>
+      </c>
+      <c r="E117">
+        <v>123.709221</v>
+      </c>
+      <c r="F117">
+        <v>22698000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>123.235001</v>
+      </c>
+      <c r="B118">
+        <v>123.410004</v>
+      </c>
+      <c r="C118">
+        <v>120.860001</v>
+      </c>
+      <c r="D118">
+        <v>121.260002</v>
+      </c>
+      <c r="E118">
+        <v>121.122169</v>
+      </c>
+      <c r="F118">
+        <v>22612000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>120.660004</v>
+      </c>
+      <c r="B119">
+        <v>123.934998</v>
+      </c>
+      <c r="C119">
+        <v>119.599998</v>
+      </c>
+      <c r="D119">
+        <v>123.870003</v>
+      </c>
+      <c r="E119">
+        <v>123.729202</v>
+      </c>
+      <c r="F119">
+        <v>20781900</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>122.040001</v>
+      </c>
+      <c r="B120">
+        <v>123.440002</v>
+      </c>
+      <c r="C120">
+        <v>121.860001</v>
+      </c>
+      <c r="D120">
+        <v>123.019997</v>
+      </c>
+      <c r="E120">
+        <v>122.880165</v>
+      </c>
+      <c r="F120">
+        <v>29542900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>121.466003</v>
+      </c>
+      <c r="B121">
+        <v>122.720001</v>
+      </c>
+      <c r="C121">
+        <v>118.989998</v>
+      </c>
+      <c r="D121">
+        <v>119.089996</v>
+      </c>
+      <c r="E121">
+        <v>118.954628</v>
+      </c>
+      <c r="F121">
+        <v>23185000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>117.839996</v>
+      </c>
+      <c r="B122">
+        <v>119.894997</v>
+      </c>
+      <c r="C122">
+        <v>116.910004</v>
+      </c>
+      <c r="D122">
+        <v>119.010002</v>
+      </c>
+      <c r="E122">
+        <v>118.874725</v>
+      </c>
+      <c r="F122">
+        <v>27221700</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>117.959999</v>
+      </c>
+      <c r="B123">
+        <v>121.269997</v>
+      </c>
+      <c r="C123">
+        <v>117.599998</v>
+      </c>
+      <c r="D123">
+        <v>121.080002</v>
+      </c>
+      <c r="E123">
+        <v>120.942375</v>
+      </c>
+      <c r="F123">
+        <v>19753100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>120.089996</v>
+      </c>
+      <c r="B124">
+        <v>120.910004</v>
+      </c>
+      <c r="C124">
+        <v>119.209999</v>
+      </c>
+      <c r="D124">
+        <v>120.010002</v>
+      </c>
+      <c r="E124">
+        <v>119.873589</v>
+      </c>
+      <c r="F124">
+        <v>18517500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>121.099998</v>
+      </c>
+      <c r="B125">
+        <v>122.029999</v>
+      </c>
+      <c r="C125">
+        <v>120.879997</v>
+      </c>
+      <c r="D125">
+        <v>120.970001</v>
+      </c>
+      <c r="E125">
+        <v>120.832497</v>
+      </c>
+      <c r="F125">
+        <v>23865800</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>120.32</v>
+      </c>
+      <c r="B126">
+        <v>121.019997</v>
+      </c>
+      <c r="C126">
+        <v>119.705002</v>
+      </c>
+      <c r="D126">
+        <v>120.559998</v>
+      </c>
+      <c r="E126">
+        <v>120.422958</v>
+      </c>
+      <c r="F126">
+        <v>13888300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>120.059998</v>
+      </c>
+      <c r="B127">
+        <v>123.370003</v>
+      </c>
+      <c r="C127">
+        <v>120.059998</v>
+      </c>
+      <c r="D127">
+        <v>122.629997</v>
+      </c>
+      <c r="E127">
+        <v>122.490608</v>
+      </c>
+      <c r="F127">
+        <v>17830300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>120.639999</v>
+      </c>
+      <c r="B128">
+        <v>121.150002</v>
+      </c>
+      <c r="C128">
+        <v>119.25</v>
+      </c>
+      <c r="D128">
+        <v>120.93</v>
+      </c>
+      <c r="E128">
+        <v>120.792542</v>
+      </c>
+      <c r="F128">
+        <v>17732500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>120.889999</v>
+      </c>
+      <c r="B129">
+        <v>121.75</v>
+      </c>
+      <c r="C129">
+        <v>120.089996</v>
+      </c>
+      <c r="D129">
+        <v>120.139999</v>
+      </c>
+      <c r="E129">
+        <v>120.003441</v>
+      </c>
+      <c r="F129">
+        <v>20982400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>119.07</v>
+      </c>
+      <c r="B130">
+        <v>119.07</v>
+      </c>
+      <c r="C130">
+        <v>116.639999</v>
+      </c>
+      <c r="D130">
+        <v>116.870003</v>
+      </c>
+      <c r="E130">
+        <v>116.73716</v>
+      </c>
+      <c r="F130">
+        <v>32960100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>116.760002</v>
+      </c>
+      <c r="B131">
+        <v>118.224998</v>
+      </c>
+      <c r="C131">
+        <v>115.830002</v>
+      </c>
+      <c r="D131">
+        <v>117.709999</v>
+      </c>
+      <c r="E131">
+        <v>117.576202</v>
+      </c>
+      <c r="F131">
+        <v>18286600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>119.300003</v>
+      </c>
+      <c r="B132">
+        <v>120.959999</v>
+      </c>
+      <c r="C132">
+        <v>119</v>
+      </c>
+      <c r="D132">
+        <v>119.620003</v>
+      </c>
+      <c r="E132">
+        <v>119.484032</v>
+      </c>
+      <c r="F132">
+        <v>22059600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>121.540001</v>
+      </c>
+      <c r="B133">
+        <v>125.334999</v>
+      </c>
+      <c r="C133">
+        <v>121.059998</v>
+      </c>
+      <c r="D133">
+        <v>124.830002</v>
+      </c>
+      <c r="E133">
+        <v>124.68811</v>
+      </c>
+      <c r="F133">
+        <v>31535900</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>125.129997</v>
+      </c>
+      <c r="B134">
+        <v>127.089996</v>
+      </c>
+      <c r="C134">
+        <v>124.900002</v>
+      </c>
+      <c r="D134">
+        <v>125.699997</v>
+      </c>
+      <c r="E134">
+        <v>125.557121</v>
+      </c>
+      <c r="F134">
+        <v>20482800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>126.059998</v>
+      </c>
+      <c r="B135">
+        <v>127.279999</v>
+      </c>
+      <c r="C135">
+        <v>124.5</v>
+      </c>
+      <c r="D135">
+        <v>125.059998</v>
+      </c>
+      <c r="E135">
+        <v>124.917847</v>
+      </c>
+      <c r="F135">
+        <v>20675300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>124.904999</v>
+      </c>
+      <c r="B136">
+        <v>124.989998</v>
+      </c>
+      <c r="C136">
+        <v>123.300003</v>
+      </c>
+      <c r="D136">
+        <v>124.080002</v>
+      </c>
+      <c r="E136">
+        <v>123.938965</v>
+      </c>
+      <c r="F136">
+        <v>21071200</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>124.790001</v>
+      </c>
+      <c r="B137">
+        <v>125.470001</v>
+      </c>
+      <c r="C137">
+        <v>122.470001</v>
+      </c>
+      <c r="D137">
+        <v>122.779999</v>
+      </c>
+      <c r="E137">
+        <v>122.640442</v>
+      </c>
+      <c r="F137">
+        <v>22313800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>122.120003</v>
+      </c>
+      <c r="B138">
+        <v>124.699997</v>
+      </c>
+      <c r="C138">
+        <v>118.684998</v>
+      </c>
+      <c r="D138">
+        <v>119.529999</v>
+      </c>
+      <c r="E138">
+        <v>119.394135</v>
+      </c>
+      <c r="F138">
+        <v>27541700</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>120.870003</v>
+      </c>
+      <c r="B139">
+        <v>121.300003</v>
+      </c>
+      <c r="C139">
+        <v>119.07</v>
+      </c>
+      <c r="D139">
+        <v>120.309998</v>
+      </c>
+      <c r="E139">
+        <v>120.173248</v>
+      </c>
+      <c r="F139">
+        <v>56498100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>121.926003</v>
+      </c>
+      <c r="B140">
+        <v>123.349998</v>
+      </c>
+      <c r="C140">
+        <v>121.379997</v>
+      </c>
+      <c r="D140">
+        <v>121.879997</v>
+      </c>
+      <c r="E140">
+        <v>121.741463</v>
+      </c>
+      <c r="F140">
+        <v>22276100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>121.879997</v>
+      </c>
+      <c r="B141">
+        <v>123.690002</v>
+      </c>
+      <c r="C141">
+        <v>121.529999</v>
+      </c>
+      <c r="D141">
+        <v>122.790001</v>
+      </c>
+      <c r="E141">
+        <v>122.650429</v>
+      </c>
+      <c r="F141">
+        <v>31820800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>130.360001</v>
+      </c>
+      <c r="B142">
+        <v>131.369995</v>
+      </c>
+      <c r="C142">
+        <v>128.710007</v>
+      </c>
+      <c r="D142">
+        <v>129.660004</v>
+      </c>
+      <c r="E142">
+        <v>129.512619</v>
+      </c>
+      <c r="F142">
+        <v>46216900</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>131.800003</v>
+      </c>
+      <c r="B143">
+        <v>133.600006</v>
+      </c>
+      <c r="C143">
+        <v>129.179993</v>
+      </c>
+      <c r="D143">
+        <v>129.869995</v>
+      </c>
+      <c r="E143">
+        <v>129.722382</v>
+      </c>
+      <c r="F143">
+        <v>35931600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>130.970001</v>
+      </c>
+      <c r="B144">
+        <v>134.070007</v>
+      </c>
+      <c r="C144">
+        <v>130.919998</v>
+      </c>
+      <c r="D144">
+        <v>133.009995</v>
+      </c>
+      <c r="E144">
+        <v>132.85881</v>
+      </c>
+      <c r="F144">
+        <v>26971000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>133.009995</v>
+      </c>
+      <c r="B145">
+        <v>133.830002</v>
+      </c>
+      <c r="C145">
+        <v>132.130005</v>
+      </c>
+      <c r="D145">
+        <v>133.110001</v>
+      </c>
+      <c r="E145">
+        <v>132.958694</v>
+      </c>
+      <c r="F145">
+        <v>18381900</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>130.854996</v>
+      </c>
+      <c r="B146">
+        <v>132.919998</v>
+      </c>
+      <c r="C146">
+        <v>130.75</v>
+      </c>
+      <c r="D146">
+        <v>131.889999</v>
+      </c>
+      <c r="E146">
+        <v>131.740082</v>
+      </c>
+      <c r="F146">
+        <v>22154300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>129.839996</v>
+      </c>
+      <c r="B147">
+        <v>130.419998</v>
+      </c>
+      <c r="C147">
+        <v>127.849998</v>
+      </c>
+      <c r="D147">
+        <v>128.639999</v>
+      </c>
+      <c r="E147">
+        <v>128.493774</v>
+      </c>
+      <c r="F147">
+        <v>22705800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>128.369995</v>
+      </c>
+      <c r="B148">
+        <v>129.770004</v>
+      </c>
+      <c r="C148">
+        <v>127.775002</v>
+      </c>
+      <c r="D148">
+        <v>128.770004</v>
+      </c>
+      <c r="E148">
+        <v>128.623642</v>
+      </c>
+      <c r="F148">
+        <v>15018100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>129.600006</v>
+      </c>
+      <c r="B149">
+        <v>131.929993</v>
+      </c>
+      <c r="C149">
+        <v>128.315002</v>
+      </c>
+      <c r="D149">
+        <v>128.539993</v>
+      </c>
+      <c r="E149">
+        <v>128.39389</v>
+      </c>
+      <c r="F149">
+        <v>20509500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>129.509995</v>
+      </c>
+      <c r="B150">
+        <v>132.059998</v>
+      </c>
+      <c r="C150">
+        <v>129.429993</v>
+      </c>
+      <c r="D150">
+        <v>131.940002</v>
+      </c>
+      <c r="E150">
+        <v>131.790039</v>
+      </c>
+      <c r="F150">
+        <v>17621000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>130.979996</v>
+      </c>
+      <c r="B151">
+        <v>131.940002</v>
+      </c>
+      <c r="C151">
+        <v>130.130005</v>
+      </c>
+      <c r="D151">
+        <v>131.839996</v>
+      </c>
+      <c r="E151">
+        <v>131.69014</v>
+      </c>
+      <c r="F151">
+        <v>16836000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>132.190002</v>
+      </c>
+      <c r="B152">
+        <v>132.470001</v>
+      </c>
+      <c r="C152">
+        <v>129.505005</v>
+      </c>
+      <c r="D152">
+        <v>130.149994</v>
+      </c>
+      <c r="E152">
+        <v>130.00206</v>
+      </c>
+      <c r="F152">
+        <v>17745200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>131.970001</v>
+      </c>
+      <c r="B153">
+        <v>132.647003</v>
+      </c>
+      <c r="C153">
+        <v>130.035004</v>
+      </c>
+      <c r="D153">
+        <v>130.210007</v>
+      </c>
+      <c r="E153">
+        <v>130.061996</v>
+      </c>
+      <c r="F153">
+        <v>17855700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>129.201996</v>
+      </c>
+      <c r="B154">
+        <v>130.440002</v>
+      </c>
+      <c r="C154">
+        <v>128.75</v>
+      </c>
+      <c r="D154">
+        <v>130.169998</v>
+      </c>
+      <c r="E154">
+        <v>130.022034</v>
+      </c>
+      <c r="F154">
+        <v>15191500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>129.850006</v>
+      </c>
+      <c r="B155">
+        <v>131.910004</v>
+      </c>
+      <c r="C155">
+        <v>129.589996</v>
+      </c>
+      <c r="D155">
+        <v>131.830002</v>
+      </c>
+      <c r="E155">
+        <v>131.680161</v>
+      </c>
+      <c r="F155">
+        <v>17526200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>131.589996</v>
+      </c>
+      <c r="B156">
+        <v>131.990005</v>
+      </c>
+      <c r="C156">
+        <v>129.819</v>
+      </c>
+      <c r="D156">
+        <v>130.270004</v>
+      </c>
+      <c r="E156">
+        <v>130.121933</v>
+      </c>
+      <c r="F156">
+        <v>14769200</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>129.279999</v>
+      </c>
+      <c r="B157">
+        <v>130.897995</v>
+      </c>
+      <c r="C157">
+        <v>128.460007</v>
+      </c>
+      <c r="D157">
+        <v>129.110001</v>
+      </c>
+      <c r="E157">
+        <v>128.963242</v>
+      </c>
+      <c r="F157">
+        <v>17548400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>130.449997</v>
+      </c>
+      <c r="B158">
+        <v>132.490997</v>
+      </c>
+      <c r="C158">
+        <v>129.850006</v>
+      </c>
+      <c r="D158">
+        <v>130.460007</v>
+      </c>
+      <c r="E158">
+        <v>130.311722</v>
+      </c>
+      <c r="F158">
+        <v>23665600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>129.059998</v>
+      </c>
+      <c r="B159">
+        <v>129.830002</v>
+      </c>
+      <c r="C159">
+        <v>127</v>
+      </c>
+      <c r="D159">
+        <v>128.110001</v>
+      </c>
+      <c r="E159">
+        <v>127.964386</v>
+      </c>
+      <c r="F159">
+        <v>23619400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>127.849998</v>
+      </c>
+      <c r="B160">
+        <v>129.259995</v>
+      </c>
+      <c r="C160">
+        <v>127.160004</v>
+      </c>
+      <c r="D160">
+        <v>128.929993</v>
+      </c>
+      <c r="E160">
+        <v>128.783447</v>
+      </c>
+      <c r="F160">
+        <v>21851100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>129.130005</v>
+      </c>
+      <c r="B161">
+        <v>130.949997</v>
+      </c>
+      <c r="C161">
+        <v>128.925003</v>
+      </c>
+      <c r="D161">
+        <v>129.690002</v>
+      </c>
+      <c r="E161">
+        <v>129.542587</v>
+      </c>
+      <c r="F161">
+        <v>15569400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>130.850006</v>
+      </c>
+      <c r="B162">
+        <v>134.070007</v>
+      </c>
+      <c r="C162">
+        <v>130.509995</v>
+      </c>
+      <c r="D162">
+        <v>133.210007</v>
+      </c>
+      <c r="E162">
+        <v>133.058594</v>
+      </c>
+      <c r="F162">
+        <v>26497000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>134.727005</v>
+      </c>
+      <c r="B163">
+        <v>134.970001</v>
+      </c>
+      <c r="C163">
+        <v>130.300003</v>
+      </c>
+      <c r="D163">
+        <v>130.419998</v>
+      </c>
+      <c r="E163">
+        <v>130.271759</v>
+      </c>
+      <c r="F163">
+        <v>18680400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>130.139999</v>
+      </c>
+      <c r="B164">
+        <v>131.399994</v>
+      </c>
+      <c r="C164">
+        <v>128.039993</v>
+      </c>
+      <c r="D164">
+        <v>130.690002</v>
+      </c>
+      <c r="E164">
+        <v>130.541458</v>
+      </c>
+      <c r="F164">
+        <v>20678100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>132.080002</v>
+      </c>
+      <c r="B165">
+        <v>133.240005</v>
+      </c>
+      <c r="C165">
+        <v>130.850006</v>
+      </c>
+      <c r="D165">
+        <v>131.789993</v>
+      </c>
+      <c r="E165">
+        <v>131.640198</v>
+      </c>
+      <c r="F165">
+        <v>16715500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>132.998001</v>
+      </c>
+      <c r="B166">
+        <v>137.294998</v>
+      </c>
+      <c r="C166">
+        <v>132.979996</v>
+      </c>
+      <c r="D166">
+        <v>135.490005</v>
+      </c>
+      <c r="E166">
+        <v>135.335999</v>
+      </c>
+      <c r="F166">
+        <v>30803300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>135.570007</v>
+      </c>
+      <c r="B167">
+        <v>137.25</v>
+      </c>
+      <c r="C167">
+        <v>135.020996</v>
+      </c>
+      <c r="D167">
+        <v>136.929993</v>
+      </c>
+      <c r="E167">
+        <v>136.774353</v>
+      </c>
+      <c r="F167">
+        <v>21773400</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>137.050003</v>
+      </c>
+      <c r="B168">
+        <v>138.399994</v>
+      </c>
+      <c r="C168">
+        <v>136.820007</v>
+      </c>
+      <c r="D168">
+        <v>137.350006</v>
+      </c>
+      <c r="E168">
+        <v>137.193878</v>
+      </c>
+      <c r="F168">
+        <v>28147900</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>138.429993</v>
+      </c>
+      <c r="B169">
+        <v>138.580002</v>
+      </c>
+      <c r="C169">
+        <v>135.940002</v>
+      </c>
+      <c r="D169">
+        <v>136.800003</v>
+      </c>
+      <c r="E169">
+        <v>136.644501</v>
+      </c>
+      <c r="F169">
+        <v>16665700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>136.440002</v>
+      </c>
+      <c r="B170">
+        <v>137.369995</v>
+      </c>
+      <c r="C170">
+        <v>135.559998</v>
+      </c>
+      <c r="D170">
+        <v>136.710007</v>
+      </c>
+      <c r="E170">
+        <v>136.554611</v>
+      </c>
+      <c r="F170">
+        <v>17730200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>137.014999</v>
+      </c>
+      <c r="B171">
+        <v>137.479996</v>
+      </c>
+      <c r="C171">
+        <v>134.690002</v>
+      </c>
+      <c r="D171">
+        <v>135.369995</v>
+      </c>
+      <c r="E171">
+        <v>135.216125</v>
+      </c>
+      <c r="F171">
+        <v>15814300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>134.600006</v>
+      </c>
+      <c r="B172">
+        <v>136.580002</v>
+      </c>
+      <c r="C172">
+        <v>133.960007</v>
+      </c>
+      <c r="D172">
+        <v>136.199997</v>
+      </c>
+      <c r="E172">
+        <v>136.045181</v>
+      </c>
+      <c r="F172">
+        <v>16976000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>135.869995</v>
+      </c>
+      <c r="B173">
+        <v>137.514999</v>
+      </c>
+      <c r="C173">
+        <v>135.869995</v>
+      </c>
+      <c r="D173">
+        <v>137.199997</v>
+      </c>
+      <c r="E173">
+        <v>137.044052</v>
+      </c>
+      <c r="F173">
+        <v>17810700</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>137.380005</v>
+      </c>
+      <c r="B174">
+        <v>138.264008</v>
+      </c>
+      <c r="C174">
+        <v>136.550003</v>
+      </c>
+      <c r="D174">
+        <v>137.740005</v>
+      </c>
+      <c r="E174">
+        <v>137.583435</v>
+      </c>
+      <c r="F174">
+        <v>17180800</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>137.130005</v>
+      </c>
+      <c r="B175">
+        <v>137.639999</v>
+      </c>
+      <c r="C175">
+        <v>135.929993</v>
+      </c>
+      <c r="D175">
+        <v>136.070007</v>
+      </c>
+      <c r="E175">
+        <v>135.915344</v>
+      </c>
+      <c r="F175">
+        <v>15212900</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>135.899994</v>
+      </c>
+      <c r="B176">
+        <v>137.699997</v>
+      </c>
+      <c r="C176">
+        <v>134.929993</v>
+      </c>
+      <c r="D176">
+        <v>137.5</v>
+      </c>
+      <c r="E176">
+        <v>137.343704</v>
+      </c>
+      <c r="F176">
+        <v>16394900</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>138.389999</v>
+      </c>
+      <c r="B177">
+        <v>139.550003</v>
+      </c>
+      <c r="C177">
+        <v>137.059998</v>
+      </c>
+      <c r="D177">
+        <v>138.990005</v>
+      </c>
+      <c r="E177">
+        <v>138.832016</v>
+      </c>
+      <c r="F177">
+        <v>19064600</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>138.800003</v>
+      </c>
+      <c r="B178">
+        <v>139.360001</v>
+      </c>
+      <c r="C178">
+        <v>137.179993</v>
+      </c>
+      <c r="D178">
+        <v>138.300003</v>
+      </c>
+      <c r="E178">
+        <v>138.142807</v>
+      </c>
+      <c r="F178">
+        <v>48947600</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>137.630005</v>
+      </c>
+      <c r="B179">
+        <v>139.929993</v>
+      </c>
+      <c r="C179">
+        <v>137.630005</v>
+      </c>
+      <c r="D179">
+        <v>138.960007</v>
+      </c>
+      <c r="E179">
+        <v>138.802063</v>
+      </c>
+      <c r="F179">
+        <v>16233600</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>138.25</v>
+      </c>
+      <c r="B180">
+        <v>139.175003</v>
+      </c>
+      <c r="C180">
+        <v>137.5</v>
+      </c>
+      <c r="D180">
+        <v>138.830002</v>
+      </c>
+      <c r="E180">
+        <v>138.672195</v>
+      </c>
+      <c r="F180">
+        <v>15479100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>138.830002</v>
+      </c>
+      <c r="B181">
+        <v>138.839996</v>
+      </c>
+      <c r="C181">
+        <v>134.520004</v>
+      </c>
+      <c r="D181">
+        <v>134.589996</v>
+      </c>
+      <c r="E181">
+        <v>134.437012</v>
+      </c>
+      <c r="F181">
+        <v>21473500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>132.389999</v>
+      </c>
+      <c r="B182">
+        <v>133.190002</v>
+      </c>
+      <c r="C182">
+        <v>131.089996</v>
+      </c>
+      <c r="D182">
+        <v>131.360001</v>
+      </c>
+      <c r="E182">
+        <v>131.210693</v>
+      </c>
+      <c r="F182">
+        <v>22042700</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>131.679993</v>
+      </c>
+      <c r="B183">
+        <v>133.009995</v>
+      </c>
+      <c r="C183">
+        <v>130.509995</v>
+      </c>
+      <c r="D183">
+        <v>131.25</v>
+      </c>
+      <c r="E183">
+        <v>131.100815</v>
+      </c>
+      <c r="F183">
+        <v>17348700</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>130.770004</v>
+      </c>
+      <c r="B184">
+        <v>132.220001</v>
+      </c>
+      <c r="C184">
+        <v>130.029999</v>
+      </c>
+      <c r="D184">
+        <v>132.169998</v>
+      </c>
+      <c r="E184">
+        <v>132.01976</v>
+      </c>
+      <c r="F184">
+        <v>14650000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>130.914001</v>
+      </c>
+      <c r="B185">
+        <v>131.404999</v>
+      </c>
+      <c r="C185">
+        <v>128.190002</v>
+      </c>
+      <c r="D185">
+        <v>129.449997</v>
+      </c>
+      <c r="E185">
+        <v>129.302856</v>
+      </c>
+      <c r="F185">
+        <v>20378800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>129.440002</v>
+      </c>
+      <c r="B186">
+        <v>131.720001</v>
+      </c>
+      <c r="C186">
+        <v>129.380005</v>
+      </c>
+      <c r="D186">
+        <v>131.460007</v>
+      </c>
+      <c r="E186">
+        <v>131.310577</v>
+      </c>
+      <c r="F186">
+        <v>18764200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>130.690002</v>
+      </c>
+      <c r="B187">
+        <v>134.179993</v>
+      </c>
+      <c r="C187">
+        <v>130.690002</v>
+      </c>
+      <c r="D187">
+        <v>133.130005</v>
+      </c>
+      <c r="E187">
+        <v>132.978683</v>
+      </c>
+      <c r="F187">
+        <v>18201400</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>134.080002</v>
+      </c>
+      <c r="B188">
+        <v>134.889999</v>
+      </c>
+      <c r="C188">
+        <v>131.320007</v>
+      </c>
+      <c r="D188">
+        <v>131.850006</v>
+      </c>
+      <c r="E188">
+        <v>131.700134</v>
+      </c>
+      <c r="F188">
+        <v>23224200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>132.154999</v>
+      </c>
+      <c r="B189">
+        <v>135.360001</v>
+      </c>
+      <c r="C189">
+        <v>132.065002</v>
+      </c>
+      <c r="D189">
+        <v>135.169998</v>
+      </c>
+      <c r="E189">
+        <v>135.016357</v>
+      </c>
+      <c r="F189">
+        <v>19210400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>134.929993</v>
+      </c>
+      <c r="B190">
+        <v>135.240005</v>
+      </c>
+      <c r="C190">
+        <v>132.815002</v>
+      </c>
+      <c r="D190">
+        <v>133.300003</v>
+      </c>
+      <c r="E190">
+        <v>133.148483</v>
+      </c>
+      <c r="F190">
+        <v>19628700</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>133.660004</v>
+      </c>
+      <c r="B191">
+        <v>136.570007</v>
+      </c>
+      <c r="C191">
+        <v>133.429993</v>
+      </c>
+      <c r="D191">
+        <v>136.270004</v>
+      </c>
+      <c r="E191">
+        <v>136.115112</v>
+      </c>
+      <c r="F191">
+        <v>22848000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>136.130005</v>
+      </c>
+      <c r="B192">
+        <v>136.5</v>
+      </c>
+      <c r="C192">
+        <v>134.455002</v>
+      </c>
+      <c r="D192">
+        <v>135.990005</v>
+      </c>
+      <c r="E192">
+        <v>135.835434</v>
+      </c>
+      <c r="F192">
+        <v>15922900</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>134.940002</v>
+      </c>
+      <c r="B193">
+        <v>139.186005</v>
+      </c>
+      <c r="C193">
+        <v>134.940002</v>
+      </c>
+      <c r="D193">
+        <v>138.729996</v>
+      </c>
+      <c r="E193">
+        <v>138.572311</v>
+      </c>
+      <c r="F193">
+        <v>20819300</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>137.990005</v>
+      </c>
+      <c r="B194">
+        <v>139.970001</v>
+      </c>
+      <c r="C194">
+        <v>136.699997</v>
+      </c>
+      <c r="D194">
+        <v>139.5</v>
+      </c>
+      <c r="E194">
+        <v>139.341431</v>
+      </c>
+      <c r="F194">
+        <v>16599100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>139.509995</v>
+      </c>
+      <c r="B195">
+        <v>140.740005</v>
+      </c>
+      <c r="C195">
+        <v>138.429993</v>
+      </c>
+      <c r="D195">
+        <v>139.199997</v>
+      </c>
+      <c r="E195">
+        <v>139.041779</v>
+      </c>
+      <c r="F195">
+        <v>19554900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>139.850006</v>
+      </c>
+      <c r="B196">
+        <v>142.220001</v>
+      </c>
+      <c r="C196">
+        <v>139.839996</v>
+      </c>
+      <c r="D196">
+        <v>141.699997</v>
+      </c>
+      <c r="E196">
+        <v>141.538925</v>
+      </c>
+      <c r="F196">
+        <v>20146300</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>142.160004</v>
+      </c>
+      <c r="B197">
+        <v>142.380005</v>
+      </c>
+      <c r="C197">
+        <v>139.449997</v>
+      </c>
+      <c r="D197">
+        <v>140.289993</v>
+      </c>
+      <c r="E197">
+        <v>140.130524</v>
+      </c>
+      <c r="F197">
+        <v>18173100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>140.649994</v>
+      </c>
+      <c r="B198">
+        <v>141.339996</v>
+      </c>
+      <c r="C198">
+        <v>137.970001</v>
+      </c>
+      <c r="D198">
+        <v>138.580002</v>
+      </c>
+      <c r="E198">
+        <v>138.422485</v>
+      </c>
+      <c r="F198">
+        <v>19438700</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>139.729996</v>
+      </c>
+      <c r="B199">
+        <v>140.904999</v>
+      </c>
+      <c r="C199">
+        <v>139.320007</v>
+      </c>
+      <c r="D199">
+        <v>140.490005</v>
+      </c>
+      <c r="E199">
+        <v>140.330322</v>
+      </c>
+      <c r="F199">
+        <v>17345600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>140.029999</v>
+      </c>
+      <c r="B200">
+        <v>141.25</v>
+      </c>
+      <c r="C200">
+        <v>138.529007</v>
+      </c>
+      <c r="D200">
+        <v>140.990005</v>
+      </c>
+      <c r="E200">
+        <v>140.829742</v>
+      </c>
+      <c r="F200">
+        <v>17424000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>140.75</v>
+      </c>
+      <c r="B201">
+        <v>141.990005</v>
+      </c>
+      <c r="C201">
+        <v>138.705002</v>
+      </c>
+      <c r="D201">
+        <v>139.279999</v>
+      </c>
+      <c r="E201">
+        <v>139.121689</v>
+      </c>
+      <c r="F201">
+        <v>18304900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>139.800003</v>
+      </c>
+      <c r="B202">
+        <v>141.005005</v>
+      </c>
+      <c r="C202">
+        <v>138.600006</v>
+      </c>
+      <c r="D202">
+        <v>138.979996</v>
+      </c>
+      <c r="E202">
+        <v>138.822021</v>
+      </c>
+      <c r="F202">
+        <v>21831200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>138.589996</v>
+      </c>
+      <c r="B203">
+        <v>139.039993</v>
+      </c>
+      <c r="C203">
+        <v>136.244995</v>
+      </c>
+      <c r="D203">
+        <v>136.740005</v>
+      </c>
+      <c r="E203">
+        <v>136.584579</v>
+      </c>
+      <c r="F203">
+        <v>24953900</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>136.229996</v>
+      </c>
+      <c r="B204">
+        <v>139.020004</v>
+      </c>
+      <c r="C204">
+        <v>135.110001</v>
+      </c>
+      <c r="D204">
+        <v>137.899994</v>
+      </c>
+      <c r="E204">
+        <v>137.743256</v>
+      </c>
+      <c r="F204">
+        <v>20780700</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>139.160004</v>
+      </c>
+      <c r="B205">
+        <v>140.710007</v>
+      </c>
+      <c r="C205">
+        <v>138.75</v>
+      </c>
+      <c r="D205">
+        <v>140.119995</v>
+      </c>
+      <c r="E205">
+        <v>139.960724</v>
+      </c>
+      <c r="F205">
+        <v>26535200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>129.770004</v>
+      </c>
+      <c r="B206">
+        <v>130.100006</v>
+      </c>
+      <c r="C206">
+        <v>126.089996</v>
+      </c>
+      <c r="D206">
+        <v>126.669998</v>
+      </c>
+      <c r="E206">
+        <v>126.526016</v>
+      </c>
+      <c r="F206">
+        <v>58796100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>124.470001</v>
+      </c>
+      <c r="B207">
+        <v>125.459999</v>
+      </c>
+      <c r="C207">
+        <v>122.32</v>
+      </c>
+      <c r="D207">
+        <v>123.440002</v>
+      </c>
+      <c r="E207">
+        <v>123.29969</v>
+      </c>
+      <c r="F207">
+        <v>33907400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>124.029999</v>
+      </c>
+      <c r="B208">
+        <v>124.440002</v>
+      </c>
+      <c r="C208">
+        <v>121.459999</v>
+      </c>
+      <c r="D208">
+        <v>123.400002</v>
+      </c>
+      <c r="E208">
+        <v>123.259735</v>
+      </c>
+      <c r="F208">
+        <v>37367700</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>124.459999</v>
+      </c>
+      <c r="B209">
+        <v>126.550003</v>
+      </c>
+      <c r="C209">
+        <v>123.879997</v>
+      </c>
+      <c r="D209">
+        <v>125.75</v>
+      </c>
+      <c r="E209">
+        <v>125.607063</v>
+      </c>
+      <c r="F209">
+        <v>24165600</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>126.269997</v>
+      </c>
+      <c r="B210">
+        <v>126.559998</v>
+      </c>
+      <c r="C210">
+        <v>123.925003</v>
+      </c>
+      <c r="D210">
+        <v>125.300003</v>
+      </c>
+      <c r="E210">
+        <v>125.157578</v>
+      </c>
+      <c r="F210">
+        <v>21123400</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>125.339996</v>
+      </c>
+      <c r="B211">
+        <v>127.739998</v>
+      </c>
+      <c r="C211">
+        <v>124.925003</v>
+      </c>
+      <c r="D211">
+        <v>127.57</v>
+      </c>
+      <c r="E211">
+        <v>127.424995</v>
+      </c>
+      <c r="F211">
+        <v>26536600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>129.559998</v>
+      </c>
+      <c r="B212">
+        <v>130.089996</v>
+      </c>
+      <c r="C212">
+        <v>128.110001</v>
+      </c>
+      <c r="D212">
+        <v>128.580002</v>
+      </c>
+      <c r="E212">
+        <v>128.433853</v>
+      </c>
+      <c r="F212">
+        <v>24091700</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>129.089996</v>
+      </c>
+      <c r="B213">
+        <v>130.729996</v>
+      </c>
+      <c r="C213">
+        <v>129.009995</v>
+      </c>
+      <c r="D213">
+        <v>130.369995</v>
+      </c>
+      <c r="E213">
+        <v>130.221802</v>
+      </c>
+      <c r="F213">
+        <v>19517900</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>130.220001</v>
+      </c>
+      <c r="B214">
+        <v>131.559998</v>
+      </c>
+      <c r="C214">
+        <v>129.929993</v>
+      </c>
+      <c r="D214">
+        <v>131.449997</v>
+      </c>
+      <c r="E214">
+        <v>131.300583</v>
+      </c>
+      <c r="F214">
+        <v>15360400</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>131.979996</v>
+      </c>
+      <c r="B215">
+        <v>133.279999</v>
+      </c>
+      <c r="C215">
+        <v>131.139999</v>
+      </c>
+      <c r="D215">
+        <v>132.399994</v>
+      </c>
+      <c r="E215">
+        <v>132.249496</v>
+      </c>
+      <c r="F215">
+        <v>19223800</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>132.360001</v>
+      </c>
+      <c r="B216">
+        <v>133.539993</v>
+      </c>
+      <c r="C216">
+        <v>132.160004</v>
+      </c>
+      <c r="D216">
+        <v>133.259995</v>
+      </c>
+      <c r="E216">
+        <v>133.108521</v>
+      </c>
+      <c r="F216">
+        <v>15093600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>133.360001</v>
+      </c>
+      <c r="B217">
+        <v>133.960007</v>
+      </c>
+      <c r="C217">
+        <v>131.509995</v>
+      </c>
+      <c r="D217">
+        <v>131.690002</v>
+      </c>
+      <c r="E217">
+        <v>131.540314</v>
+      </c>
+      <c r="F217">
+        <v>17976500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>131.529999</v>
+      </c>
+      <c r="B218">
+        <v>134.270004</v>
+      </c>
+      <c r="C218">
+        <v>130.869995</v>
+      </c>
+      <c r="D218">
+        <v>134.059998</v>
+      </c>
+      <c r="E218">
+        <v>133.907623</v>
+      </c>
+      <c r="F218">
+        <v>20872900</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>133.360001</v>
+      </c>
+      <c r="B219">
+        <v>134.110001</v>
+      </c>
+      <c r="C219">
+        <v>132.770004</v>
+      </c>
+      <c r="D219">
+        <v>133.639999</v>
+      </c>
+      <c r="E219">
+        <v>133.488098</v>
+      </c>
+      <c r="F219">
+        <v>16409900</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>135.649994</v>
+      </c>
+      <c r="B220">
+        <v>137.240005</v>
+      </c>
+      <c r="C220">
+        <v>135.100006</v>
+      </c>
+      <c r="D220">
+        <v>135.429993</v>
+      </c>
+      <c r="E220">
+        <v>135.276062</v>
+      </c>
+      <c r="F220">
+        <v>22317300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>136.639999</v>
+      </c>
+      <c r="B221">
+        <v>136.839996</v>
+      </c>
+      <c r="C221">
+        <v>135.330002</v>
+      </c>
+      <c r="D221">
+        <v>136.380005</v>
+      </c>
+      <c r="E221">
+        <v>136.224991</v>
+      </c>
+      <c r="F221">
+        <v>15840900</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>136.960007</v>
+      </c>
+      <c r="B222">
+        <v>138.880005</v>
+      </c>
+      <c r="C222">
+        <v>136.080002</v>
+      </c>
+      <c r="D222">
+        <v>138.699997</v>
+      </c>
+      <c r="E222">
+        <v>138.542343</v>
+      </c>
+      <c r="F222">
+        <v>17615100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>137.820007</v>
+      </c>
+      <c r="B223">
+        <v>138</v>
+      </c>
+      <c r="C223">
+        <v>135.479996</v>
+      </c>
+      <c r="D223">
+        <v>136.940002</v>
+      </c>
+      <c r="E223">
+        <v>136.784348</v>
+      </c>
+      <c r="F223">
+        <v>25565300</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>135.5</v>
+      </c>
+      <c r="B224">
+        <v>138.425003</v>
+      </c>
+      <c r="C224">
+        <v>135.490005</v>
+      </c>
+      <c r="D224">
+        <v>137.919998</v>
+      </c>
+      <c r="E224">
+        <v>137.763229</v>
+      </c>
+      <c r="F224">
+        <v>19569400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>137.940002</v>
+      </c>
+      <c r="B225">
+        <v>138.964996</v>
+      </c>
+      <c r="C225">
+        <v>137.705002</v>
+      </c>
+      <c r="D225">
+        <v>138.619995</v>
+      </c>
+      <c r="E225">
+        <v>138.462433</v>
+      </c>
+      <c r="F225">
+        <v>17648100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>139.100006</v>
+      </c>
+      <c r="B226">
+        <v>141.100006</v>
+      </c>
+      <c r="C226">
+        <v>139</v>
+      </c>
+      <c r="D226">
+        <v>140.020004</v>
+      </c>
+      <c r="E226">
+        <v>139.860855</v>
+      </c>
+      <c r="F226">
+        <v>17306400</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>139.539993</v>
+      </c>
+      <c r="B227">
+        <v>139.677002</v>
+      </c>
+      <c r="C227">
+        <v>137.470001</v>
+      </c>
+      <c r="D227">
+        <v>138.220001</v>
+      </c>
+      <c r="E227">
+        <v>138.062897</v>
+      </c>
+      <c r="F227">
+        <v>8828600</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>137.570007</v>
+      </c>
+      <c r="B228">
+        <v>139.630005</v>
+      </c>
+      <c r="C228">
+        <v>137.539993</v>
+      </c>
+      <c r="D228">
+        <v>138.050003</v>
+      </c>
+      <c r="E228">
+        <v>137.893082</v>
+      </c>
+      <c r="F228">
+        <v>17886400</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>137.630005</v>
+      </c>
+      <c r="B229">
+        <v>138.660004</v>
+      </c>
+      <c r="C229">
+        <v>137.039993</v>
+      </c>
+      <c r="D229">
+        <v>138.619995</v>
+      </c>
+      <c r="E229">
+        <v>138.462433</v>
+      </c>
+      <c r="F229">
+        <v>17046900</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>138.985001</v>
+      </c>
+      <c r="B230">
+        <v>139.669998</v>
+      </c>
+      <c r="C230">
+        <v>136.294998</v>
+      </c>
+      <c r="D230">
+        <v>136.399994</v>
+      </c>
+      <c r="E230">
+        <v>136.244949</v>
+      </c>
+      <c r="F230">
+        <v>21014700</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>136.399994</v>
+      </c>
+      <c r="B231">
+        <v>136.960007</v>
+      </c>
+      <c r="C231">
+        <v>132.789993</v>
+      </c>
+      <c r="D231">
+        <v>133.919998</v>
+      </c>
+      <c r="E231">
+        <v>133.767776</v>
+      </c>
+      <c r="F231">
+        <v>29913500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>133.320007</v>
+      </c>
+      <c r="B232">
+        <v>133.5</v>
+      </c>
+      <c r="C232">
+        <v>132.151993</v>
+      </c>
+      <c r="D232">
+        <v>133.320007</v>
+      </c>
+      <c r="E232">
+        <v>133.168472</v>
+      </c>
+      <c r="F232">
+        <v>24258400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>131.294006</v>
+      </c>
+      <c r="B233">
+        <v>131.449997</v>
+      </c>
+      <c r="C233">
+        <v>129.399994</v>
+      </c>
+      <c r="D233">
+        <v>130.630005</v>
+      </c>
+      <c r="E233">
+        <v>130.481522</v>
+      </c>
+      <c r="F233">
+        <v>24117100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>130.369995</v>
+      </c>
+      <c r="B234">
+        <v>133.539993</v>
+      </c>
+      <c r="C234">
+        <v>129.729996</v>
+      </c>
+      <c r="D234">
+        <v>132.389999</v>
+      </c>
+      <c r="E234">
+        <v>132.239517</v>
+      </c>
+      <c r="F234">
+        <v>19235100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>132.899994</v>
+      </c>
+      <c r="B235">
+        <v>133.309998</v>
+      </c>
+      <c r="C235">
+        <v>131.309998</v>
+      </c>
+      <c r="D235">
+        <v>131.429993</v>
+      </c>
+      <c r="E235">
+        <v>131.280594</v>
+      </c>
+      <c r="F235">
+        <v>16360600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>136.600006</v>
+      </c>
+      <c r="B236">
+        <v>140</v>
+      </c>
+      <c r="C236">
+        <v>136.229996</v>
+      </c>
+      <c r="D236">
+        <v>138.449997</v>
+      </c>
+      <c r="E236">
+        <v>138.292633</v>
+      </c>
+      <c r="F236">
+        <v>38419400</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>135.660004</v>
+      </c>
+      <c r="B237">
+        <v>137.990005</v>
+      </c>
+      <c r="C237">
+        <v>135.570007</v>
+      </c>
+      <c r="D237">
+        <v>136.639999</v>
+      </c>
+      <c r="E237">
+        <v>136.48468</v>
+      </c>
+      <c r="F237">
+        <v>22990900</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>133.820007</v>
+      </c>
+      <c r="B238">
+        <v>134.789993</v>
+      </c>
+      <c r="C238">
+        <v>132.889999</v>
+      </c>
+      <c r="D238">
+        <v>134.699997</v>
+      </c>
+      <c r="E238">
+        <v>134.54689</v>
+      </c>
+      <c r="F238">
+        <v>24502900</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>133.270004</v>
+      </c>
+      <c r="B239">
+        <v>134.539993</v>
+      </c>
+      <c r="C239">
+        <v>132.830002</v>
+      </c>
+      <c r="D239">
+        <v>133.639999</v>
+      </c>
+      <c r="E239">
+        <v>133.488098</v>
+      </c>
+      <c r="F239">
+        <v>26584000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>134.544998</v>
+      </c>
+      <c r="B240">
+        <v>134.779999</v>
+      </c>
+      <c r="C240">
+        <v>132.949997</v>
+      </c>
+      <c r="D240">
+        <v>133.970001</v>
+      </c>
+      <c r="E240">
+        <v>133.817719</v>
+      </c>
+      <c r="F240">
+        <v>25414500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>134.770004</v>
+      </c>
+      <c r="B241">
+        <v>135.035004</v>
+      </c>
+      <c r="C241">
+        <v>131.059998</v>
+      </c>
+      <c r="D241">
+        <v>133.199997</v>
+      </c>
+      <c r="E241">
+        <v>133.048599</v>
+      </c>
+      <c r="F241">
+        <v>29619100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>132.919998</v>
+      </c>
+      <c r="B242">
+        <v>134.830002</v>
+      </c>
+      <c r="C242">
+        <v>132.630005</v>
+      </c>
+      <c r="D242">
+        <v>133.839996</v>
+      </c>
+      <c r="E242">
+        <v>133.687866</v>
+      </c>
+      <c r="F242">
+        <v>58569400</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>133.860001</v>
+      </c>
+      <c r="B243">
+        <v>138.380005</v>
+      </c>
+      <c r="C243">
+        <v>133.770004</v>
+      </c>
+      <c r="D243">
+        <v>137.190002</v>
+      </c>
+      <c r="E243">
+        <v>137.034058</v>
+      </c>
+      <c r="F243">
+        <v>25699800</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>138</v>
+      </c>
+      <c r="B244">
+        <v>138.770004</v>
+      </c>
+      <c r="C244">
+        <v>137.449997</v>
+      </c>
+      <c r="D244">
+        <v>138.100006</v>
+      </c>
+      <c r="E244">
+        <v>137.943039</v>
+      </c>
+      <c r="F244">
+        <v>20661000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>140.330002</v>
+      </c>
+      <c r="B245">
+        <v>143.078003</v>
+      </c>
+      <c r="C245">
+        <v>139.410004</v>
+      </c>
+      <c r="D245">
+        <v>139.660004</v>
+      </c>
+      <c r="E245">
+        <v>139.501251</v>
+      </c>
+      <c r="F245">
+        <v>33507300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>140.770004</v>
+      </c>
+      <c r="B246">
+        <v>142.029999</v>
+      </c>
+      <c r="C246">
+        <v>140.473007</v>
+      </c>
+      <c r="D246">
+        <v>141.800003</v>
+      </c>
+      <c r="E246">
+        <v>141.638824</v>
+      </c>
+      <c r="F246">
+        <v>18101500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>142.130005</v>
+      </c>
+      <c r="B247">
+        <v>143.25</v>
+      </c>
+      <c r="C247">
+        <v>142.054993</v>
+      </c>
+      <c r="D247">
+        <v>142.720001</v>
+      </c>
+      <c r="E247">
+        <v>142.55777</v>
+      </c>
+      <c r="F247">
+        <v>18494700</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>142.979996</v>
+      </c>
+      <c r="B248">
+        <v>143.945007</v>
+      </c>
+      <c r="C248">
+        <v>142.5</v>
+      </c>
+      <c r="D248">
+        <v>142.820007</v>
+      </c>
+      <c r="E248">
+        <v>142.657669</v>
+      </c>
+      <c r="F248">
+        <v>11170100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>142.830002</v>
+      </c>
+      <c r="B249">
+        <v>143.320007</v>
+      </c>
+      <c r="C249">
+        <v>141.050995</v>
+      </c>
+      <c r="D249">
+        <v>141.440002</v>
+      </c>
+      <c r="E249">
+        <v>141.279236</v>
+      </c>
+      <c r="F249">
+        <v>17288400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>141.850006</v>
+      </c>
+      <c r="B250">
+        <v>142.270004</v>
+      </c>
+      <c r="C250">
+        <v>140.828003</v>
+      </c>
+      <c r="D250">
+        <v>141.279999</v>
+      </c>
+      <c r="E250">
+        <v>141.119415</v>
+      </c>
+      <c r="F250">
+        <v>12192500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>140.679993</v>
+      </c>
+      <c r="B251">
+        <v>141.434998</v>
+      </c>
+      <c r="C251">
+        <v>139.899994</v>
+      </c>
+      <c r="D251">
+        <v>140.929993</v>
+      </c>
+      <c r="E251">
+        <v>140.769806</v>
+      </c>
+      <c r="F251">
+        <v>14872700</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>139.600006</v>
+      </c>
+      <c r="B252">
+        <v>140.615005</v>
+      </c>
+      <c r="C252">
+        <v>137.740005</v>
+      </c>
+      <c r="D252">
+        <v>139.559998</v>
+      </c>
+      <c r="E252">
+        <v>139.401367</v>
+      </c>
+      <c r="F252">
+        <v>20071900</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>138.600006</v>
+      </c>
+      <c r="B253">
+        <v>141.089996</v>
+      </c>
+      <c r="C253">
+        <v>138.429993</v>
+      </c>
+      <c r="D253">
+        <v>140.360001</v>
+      </c>
+      <c r="E253">
+        <v>140.200455</v>
+      </c>
+      <c r="F253">
+        <v>18974300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>139.850006</v>
+      </c>
+      <c r="B254">
+        <v>140.634995</v>
+      </c>
+      <c r="C254">
+        <v>138.009995</v>
+      </c>
+      <c r="D254">
+        <v>138.039993</v>
+      </c>
+      <c r="E254">
+        <v>137.883087</v>
+      </c>
+      <c r="F254">
+        <v>18253300</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>138.352005</v>
+      </c>
+      <c r="B255">
+        <v>138.809998</v>
+      </c>
+      <c r="C255">
+        <v>136.850006</v>
+      </c>
+      <c r="D255">
+        <v>137.389999</v>
+      </c>
+      <c r="E255">
+        <v>137.233841</v>
+      </c>
+      <c r="F255">
+        <v>15433200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>138</v>
+      </c>
+      <c r="B256">
+        <v>140.639999</v>
+      </c>
+      <c r="C256">
+        <v>137.880005</v>
+      </c>
+      <c r="D256">
+        <v>140.529999</v>
+      </c>
+      <c r="E256">
+        <v>140.37027</v>
+      </c>
+      <c r="F256">
+        <v>17645300</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>140.059998</v>
+      </c>
+      <c r="B257">
+        <v>142.800003</v>
+      </c>
+      <c r="C257">
+        <v>139.789993</v>
+      </c>
+      <c r="D257">
+        <v>142.559998</v>
+      </c>
+      <c r="E257">
+        <v>142.397949</v>
+      </c>
+      <c r="F257">
+        <v>19579700</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>142.520004</v>
+      </c>
+      <c r="B258">
+        <v>144.524994</v>
+      </c>
+      <c r="C258">
+        <v>142.460007</v>
+      </c>
+      <c r="D258">
+        <v>143.800003</v>
+      </c>
+      <c r="E258">
+        <v>143.636551</v>
+      </c>
+      <c r="F258">
+        <v>16641900</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>144.895004</v>
+      </c>
+      <c r="B259">
+        <v>146.660004</v>
+      </c>
+      <c r="C259">
+        <v>142.214996</v>
+      </c>
+      <c r="D259">
+        <v>143.669998</v>
+      </c>
+      <c r="E259">
+        <v>143.506699</v>
+      </c>
+      <c r="F259">
+        <v>17471100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>144.339996</v>
+      </c>
+      <c r="B260">
+        <v>144.740005</v>
+      </c>
+      <c r="C260">
+        <v>143.360001</v>
+      </c>
+      <c r="D260">
+        <v>144.240005</v>
+      </c>
+      <c r="E260">
+        <v>144.07605</v>
+      </c>
+      <c r="F260">
+        <v>13995200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>143.429993</v>
+      </c>
+      <c r="B261">
+        <v>145.839996</v>
+      </c>
+      <c r="C261">
+        <v>143.056</v>
+      </c>
+      <c r="D261">
+        <v>144.080002</v>
+      </c>
+      <c r="E261">
+        <v>143.916229</v>
+      </c>
+      <c r="F261">
+        <v>19198900</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>142.910004</v>
+      </c>
+      <c r="B262">
+        <v>143.410004</v>
+      </c>
+      <c r="C262">
+        <v>140.509995</v>
+      </c>
+      <c r="D262">
+        <v>142.889999</v>
+      </c>
+      <c r="E262">
+        <v>142.727585</v>
+      </c>
+      <c r="F262">
+        <v>17884500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>143.440002</v>
+      </c>
+      <c r="B263">
+        <v>145.585007</v>
+      </c>
+      <c r="C263">
+        <v>143.350006</v>
+      </c>
+      <c r="D263">
+        <v>144.990005</v>
+      </c>
+      <c r="E263">
+        <v>144.825195</v>
+      </c>
+      <c r="F263">
+        <v>18876800</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>146.304993</v>
+      </c>
+      <c r="B264">
+        <v>148.039993</v>
+      </c>
+      <c r="C264">
+        <v>145.800003</v>
+      </c>
+      <c r="D264">
+        <v>147.970001</v>
+      </c>
+      <c r="E264">
+        <v>147.801804</v>
+      </c>
+      <c r="F264">
+        <v>27170900</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>148.710007</v>
+      </c>
+      <c r="B265">
+        <v>150.014999</v>
+      </c>
+      <c r="C265">
+        <v>147.580002</v>
+      </c>
+      <c r="D265">
+        <v>147.710007</v>
+      </c>
+      <c r="E265">
+        <v>147.542114</v>
+      </c>
+      <c r="F265">
+        <v>21829200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>147.720001</v>
+      </c>
+      <c r="B266">
+        <v>148.860001</v>
+      </c>
+      <c r="C266">
+        <v>147.190002</v>
+      </c>
+      <c r="D266">
+        <v>148.679993</v>
+      </c>
+      <c r="E266">
+        <v>148.511002</v>
+      </c>
+      <c r="F266">
+        <v>14113600</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>150.289993</v>
+      </c>
+      <c r="B267">
+        <v>151.570007</v>
+      </c>
+      <c r="C267">
+        <v>149.839996</v>
+      </c>
+      <c r="D267">
+        <v>150.350006</v>
+      </c>
+      <c r="E267">
+        <v>150.179108</v>
+      </c>
+      <c r="F267">
+        <v>19245000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>151.740005</v>
+      </c>
+      <c r="B268">
+        <v>154.759995</v>
+      </c>
+      <c r="C268">
+        <v>151.220001</v>
+      </c>
+      <c r="D268">
+        <v>153.639999</v>
+      </c>
+      <c r="E268">
+        <v>153.465363</v>
+      </c>
+      <c r="F268">
+        <v>21495100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>152.869995</v>
+      </c>
+      <c r="B269">
+        <v>154.110001</v>
+      </c>
+      <c r="C269">
+        <v>152.800003</v>
+      </c>
+      <c r="D269">
+        <v>153.789993</v>
+      </c>
+      <c r="E269">
+        <v>153.615189</v>
+      </c>
+      <c r="F269">
+        <v>19494500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>153.639999</v>
+      </c>
+      <c r="B270">
+        <v>155.199997</v>
+      </c>
+      <c r="C270">
+        <v>152.919998</v>
+      </c>
+      <c r="D270">
+        <v>154.839996</v>
+      </c>
+      <c r="E270">
+        <v>154.664001</v>
+      </c>
+      <c r="F270">
+        <v>20909300</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>154.009995</v>
+      </c>
+      <c r="B271">
+        <v>155.039993</v>
+      </c>
+      <c r="C271">
+        <v>152.774994</v>
+      </c>
+      <c r="D271">
+        <v>153.050003</v>
+      </c>
+      <c r="E271">
+        <v>152.876038</v>
+      </c>
+      <c r="F271">
+        <v>26578900</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>145.389999</v>
+      </c>
+      <c r="B272">
+        <v>145.589996</v>
+      </c>
+      <c r="C272">
+        <v>141.550003</v>
+      </c>
+      <c r="D272">
+        <v>141.800003</v>
+      </c>
+      <c r="E272">
+        <v>141.638824</v>
+      </c>
+      <c r="F272">
+        <v>43908600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>143.690002</v>
+      </c>
+      <c r="B273">
+        <v>144.619995</v>
+      </c>
+      <c r="C273">
+        <v>142.259995</v>
+      </c>
+      <c r="D273">
+        <v>142.710007</v>
+      </c>
+      <c r="E273">
+        <v>142.547791</v>
+      </c>
+      <c r="F273">
+        <v>25526900</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>140.889999</v>
+      </c>
+      <c r="B274">
+        <v>143.880005</v>
+      </c>
+      <c r="C274">
+        <v>138.169998</v>
+      </c>
+      <c r="D274">
+        <v>143.539993</v>
+      </c>
+      <c r="E274">
+        <v>143.376831</v>
+      </c>
+      <c r="F274">
+        <v>42116900</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>144.039993</v>
+      </c>
+      <c r="B275">
+        <v>146.669998</v>
+      </c>
+      <c r="C275">
+        <v>143.910004</v>
+      </c>
+      <c r="D275">
+        <v>144.929993</v>
+      </c>
+      <c r="E275">
+        <v>144.765259</v>
+      </c>
+      <c r="F275">
+        <v>29254400</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>145.960007</v>
+      </c>
+      <c r="B276">
+        <v>146.740005</v>
+      </c>
+      <c r="C276">
+        <v>144.520004</v>
+      </c>
+      <c r="D276">
+        <v>145.410004</v>
+      </c>
+      <c r="E276">
+        <v>145.24472</v>
+      </c>
+      <c r="F276">
+        <v>21517700</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>146.119995</v>
+      </c>
+      <c r="B277">
+        <v>147</v>
+      </c>
+      <c r="C277">
+        <v>145.210007</v>
+      </c>
+      <c r="D277">
+        <v>146.679993</v>
+      </c>
+      <c r="E277">
+        <v>146.51326</v>
+      </c>
+      <c r="F277">
+        <v>21436100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>146.970001</v>
+      </c>
+      <c r="B278">
+        <v>147.610001</v>
+      </c>
+      <c r="C278">
+        <v>146.419998</v>
+      </c>
+      <c r="D278">
+        <v>147.220001</v>
+      </c>
+      <c r="E278">
+        <v>147.052658</v>
+      </c>
+      <c r="F278">
+        <v>18241300</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>147.949997</v>
+      </c>
+      <c r="B279">
+        <v>150.695007</v>
+      </c>
+      <c r="C279">
+        <v>147.429993</v>
+      </c>
+      <c r="D279">
+        <v>150.220001</v>
+      </c>
+      <c r="E279">
+        <v>150.049255</v>
+      </c>
+      <c r="F279">
+        <v>21877700</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>149.539993</v>
+      </c>
+      <c r="B280">
+        <v>150.589996</v>
+      </c>
+      <c r="C280">
+        <v>148.559998</v>
+      </c>
+      <c r="D280">
+        <v>148.729996</v>
+      </c>
+      <c r="E280">
+        <v>148.560944</v>
+      </c>
+      <c r="F280">
+        <v>17236100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>146.070007</v>
+      </c>
+      <c r="B281">
+        <v>148.039993</v>
+      </c>
+      <c r="C281">
+        <v>145.110001</v>
+      </c>
+      <c r="D281">
+        <v>146.369995</v>
+      </c>
+      <c r="E281">
+        <v>146.203629</v>
+      </c>
+      <c r="F281">
+        <v>18138500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>147.369995</v>
+      </c>
+      <c r="B282">
+        <v>147.830002</v>
+      </c>
+      <c r="C282">
+        <v>145.554993</v>
+      </c>
+      <c r="D282">
+        <v>147.139999</v>
+      </c>
+      <c r="E282">
+        <v>146.972748</v>
+      </c>
+      <c r="F282">
+        <v>16651800</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>144.460007</v>
+      </c>
+      <c r="B283">
+        <v>144.759995</v>
+      </c>
+      <c r="C283">
+        <v>141.880005</v>
+      </c>
+      <c r="D283">
+        <v>143.940002</v>
+      </c>
+      <c r="E283">
+        <v>143.776398</v>
+      </c>
+      <c r="F283">
+        <v>26724300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>144.210007</v>
+      </c>
+      <c r="B284">
+        <v>144.479996</v>
+      </c>
+      <c r="C284">
+        <v>141.520004</v>
+      </c>
+      <c r="D284">
+        <v>141.759995</v>
+      </c>
+      <c r="E284">
+        <v>141.598862</v>
+      </c>
+      <c r="F284">
+        <v>21849700</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>140.940002</v>
+      </c>
+      <c r="B285">
+        <v>143.328995</v>
+      </c>
+      <c r="C285">
+        <v>140.800003</v>
+      </c>
+      <c r="D285">
+        <v>142.199997</v>
+      </c>
+      <c r="E285">
+        <v>142.038361</v>
+      </c>
+      <c r="F285">
+        <v>18625600</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>142.639999</v>
+      </c>
+      <c r="B286">
+        <v>143.979996</v>
+      </c>
+      <c r="C286">
+        <v>141.910004</v>
+      </c>
+      <c r="D286">
+        <v>143.839996</v>
+      </c>
+      <c r="E286">
+        <v>143.676498</v>
+      </c>
+      <c r="F286">
+        <v>16499600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>146.119995</v>
+      </c>
+      <c r="B287">
+        <v>146.199997</v>
+      </c>
+      <c r="C287">
+        <v>144.009995</v>
+      </c>
+      <c r="D287">
+        <v>145.320007</v>
+      </c>
+      <c r="E287">
+        <v>145.154831</v>
+      </c>
+      <c r="F287">
+        <v>23024700</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>144.970001</v>
+      </c>
+      <c r="B288">
+        <v>145.955002</v>
+      </c>
+      <c r="C288">
+        <v>144.789993</v>
+      </c>
+      <c r="D288">
+        <v>145.289993</v>
+      </c>
+      <c r="E288">
+        <v>145.124847</v>
+      </c>
+      <c r="F288">
+        <v>14519400</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>143.449997</v>
+      </c>
+      <c r="B289">
+        <v>143.839996</v>
+      </c>
+      <c r="C289">
+        <v>138.740005</v>
+      </c>
+      <c r="D289">
+        <v>138.75</v>
+      </c>
+      <c r="E289">
+        <v>138.592285</v>
+      </c>
+      <c r="F289">
+        <v>33513000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>139.410004</v>
+      </c>
+      <c r="B290">
+        <v>140.490005</v>
+      </c>
+      <c r="C290">
+        <v>138.5</v>
+      </c>
+      <c r="D290">
+        <v>140.100006</v>
+      </c>
+      <c r="E290">
+        <v>139.940765</v>
+      </c>
+      <c r="F290">
+        <v>22364000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>139.100006</v>
+      </c>
+      <c r="B291">
+        <v>139.279999</v>
+      </c>
+      <c r="C291">
+        <v>136.639999</v>
+      </c>
+      <c r="D291">
+        <v>137.429993</v>
+      </c>
+      <c r="E291">
+        <v>137.273788</v>
+      </c>
+      <c r="F291">
+        <v>30628700</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>138.350006</v>
+      </c>
+      <c r="B292">
+        <v>139.949997</v>
+      </c>
+      <c r="C292">
+        <v>137.570007</v>
+      </c>
+      <c r="D292">
+        <v>139.779999</v>
+      </c>
+      <c r="E292">
+        <v>139.621109</v>
+      </c>
+      <c r="F292">
+        <v>35485000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>139.610001</v>
+      </c>
+      <c r="B293">
+        <v>140</v>
+      </c>
+      <c r="C293">
+        <v>137.975006</v>
+      </c>
+      <c r="D293">
+        <v>138.080002</v>
+      </c>
+      <c r="E293">
+        <v>137.92305</v>
+      </c>
+      <c r="F293">
+        <v>28522000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>136.539993</v>
+      </c>
+      <c r="B294">
+        <v>136.630005</v>
+      </c>
+      <c r="C294">
+        <v>132.860001</v>
+      </c>
+      <c r="D294">
+        <v>134.199997</v>
+      </c>
+      <c r="E294">
+        <v>134.047455</v>
+      </c>
+      <c r="F294">
+        <v>43571500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>132.740005</v>
+      </c>
+      <c r="B295">
+        <v>134.020004</v>
+      </c>
+      <c r="C295">
+        <v>131.550003</v>
+      </c>
+      <c r="D295">
+        <v>133.779999</v>
+      </c>
+      <c r="E295">
+        <v>133.62793</v>
+      </c>
+      <c r="F295">
+        <v>28447600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>134.240005</v>
+      </c>
+      <c r="B296">
+        <v>134.740005</v>
+      </c>
+      <c r="C296">
+        <v>131.949997</v>
+      </c>
+      <c r="D296">
+        <v>132.559998</v>
+      </c>
+      <c r="E296">
+        <v>132.409317</v>
+      </c>
+      <c r="F296">
+        <v>23175200</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>133.889999</v>
+      </c>
+      <c r="B297">
+        <v>135.820007</v>
+      </c>
+      <c r="C297">
+        <v>132.660004</v>
+      </c>
+      <c r="D297">
+        <v>135.240005</v>
+      </c>
+      <c r="E297">
+        <v>135.086288</v>
+      </c>
+      <c r="F297">
+        <v>24107300</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>135.035004</v>
+      </c>
+      <c r="B298">
+        <v>138.985001</v>
+      </c>
+      <c r="C298">
+        <v>134.800003</v>
+      </c>
+      <c r="D298">
+        <v>136.289993</v>
+      </c>
+      <c r="E298">
+        <v>136.135071</v>
+      </c>
+      <c r="F298">
+        <v>26472400</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>137.070007</v>
+      </c>
+      <c r="B299">
+        <v>139.979996</v>
+      </c>
+      <c r="C299">
+        <v>137.070007</v>
+      </c>
+      <c r="D299">
+        <v>138.940002</v>
+      </c>
+      <c r="E299">
+        <v>138.782074</v>
+      </c>
+      <c r="F299">
+        <v>22536400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>138.25</v>
+      </c>
+      <c r="B300">
+        <v>140.279999</v>
+      </c>
+      <c r="C300">
+        <v>138.210007</v>
+      </c>
+      <c r="D300">
+        <v>139.619995</v>
+      </c>
+      <c r="E300">
+        <v>139.461288</v>
+      </c>
+      <c r="F300">
+        <v>19019700</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>140.059998</v>
+      </c>
+      <c r="B301">
+        <v>142.190002</v>
+      </c>
+      <c r="C301">
+        <v>140.009995</v>
+      </c>
+      <c r="D301">
+        <v>140.770004</v>
+      </c>
+      <c r="E301">
+        <v>140.610001</v>
+      </c>
+      <c r="F301">
+        <v>19637000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
+        <v>142.300003</v>
+      </c>
+      <c r="B302">
+        <v>144.729996</v>
+      </c>
+      <c r="C302">
+        <v>141.485001</v>
+      </c>
+      <c r="D302">
+        <v>144.339996</v>
+      </c>
+      <c r="E302">
+        <v>144.175934</v>
+      </c>
+      <c r="F302">
+        <v>36117900</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303">
+        <v>143.410004</v>
+      </c>
+      <c r="B303">
+        <v>144.339996</v>
+      </c>
+      <c r="C303">
+        <v>141.130005</v>
+      </c>
+      <c r="D303">
+        <v>142.169998</v>
+      </c>
+      <c r="E303">
+        <v>142.008392</v>
+      </c>
+      <c r="F303">
+        <v>41025900</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304">
+        <v>149.369995</v>
+      </c>
+      <c r="B304">
+        <v>152.929993</v>
+      </c>
+      <c r="C304">
+        <v>148.139999</v>
+      </c>
+      <c r="D304">
+        <v>148.479996</v>
+      </c>
+      <c r="E304">
+        <v>148.311218</v>
+      </c>
+      <c r="F304">
+        <v>47676700</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305">
+        <v>148.979996</v>
+      </c>
+      <c r="B305">
+        <v>149.619995</v>
+      </c>
+      <c r="C305">
+        <v>147.009995</v>
+      </c>
+      <c r="D305">
+        <v>147.919998</v>
+      </c>
+      <c r="E305">
+        <v>147.751862</v>
+      </c>
+      <c r="F305">
+        <v>17748400</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
+        <v>148.789993</v>
+      </c>
+      <c r="B306">
+        <v>149.759995</v>
+      </c>
+      <c r="C306">
+        <v>147.664993</v>
+      </c>
+      <c r="D306">
+        <v>149.679993</v>
+      </c>
+      <c r="E306">
+        <v>149.509857</v>
+      </c>
+      <c r="F306">
+        <v>17730000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307">
+        <v>150.320007</v>
+      </c>
+      <c r="B307">
+        <v>151.304993</v>
+      </c>
+      <c r="C307">
+        <v>148.009995</v>
+      </c>
+      <c r="D307">
+        <v>148.740005</v>
+      </c>
+      <c r="E307">
+        <v>148.570938</v>
+      </c>
+      <c r="F307">
+        <v>19843900</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
+        <v>150.240005</v>
+      </c>
+      <c r="B308">
+        <v>152.559998</v>
+      </c>
+      <c r="C308">
+        <v>150.089996</v>
+      </c>
+      <c r="D308">
+        <v>151.770004</v>
+      </c>
+      <c r="E308">
+        <v>151.597488</v>
+      </c>
+      <c r="F308">
+        <v>19226300</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309">
+        <v>150.949997</v>
+      </c>
+      <c r="B309">
+        <v>151.455994</v>
+      </c>
+      <c r="C309">
+        <v>148.800003</v>
+      </c>
+      <c r="D309">
+        <v>151.149994</v>
+      </c>
+      <c r="E309">
+        <v>150.978195</v>
+      </c>
+      <c r="F309">
+        <v>15114700</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310">
+        <v>151.240005</v>
+      </c>
+      <c r="B310">
+        <v>153.199997</v>
+      </c>
+      <c r="C310">
+        <v>151.029999</v>
+      </c>
+      <c r="D310">
+        <v>151.699997</v>
+      </c>
+      <c r="E310">
+        <v>151.527573</v>
+      </c>
+      <c r="F310">
+        <v>19312700</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311">
+        <v>152.145004</v>
+      </c>
+      <c r="B311">
+        <v>152.690002</v>
+      </c>
+      <c r="C311">
+        <v>150.130005</v>
+      </c>
+      <c r="D311">
+        <v>151.940002</v>
+      </c>
+      <c r="E311">
+        <v>151.767303</v>
+      </c>
+      <c r="F311">
+        <v>16622000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>152</v>
+      </c>
+      <c r="B312">
+        <v>152.669998</v>
+      </c>
+      <c r="C312">
+        <v>151.330002</v>
+      </c>
+      <c r="D312">
+        <v>152.259995</v>
+      </c>
+      <c r="E312">
+        <v>152.086929</v>
+      </c>
+      <c r="F312">
+        <v>21105600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
